--- a/TRM.xlsx
+++ b/TRM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\PDG 231006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743202F2-DCF1-4129-90F4-98C721C9C160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AED62A-3CC0-4FA9-8722-304B82ADBCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A162009F-ACA4-449A-8473-FC43360F5EC1}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A162009F-ACA4-449A-8473-FC43360F5EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="TRM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TRM!$A$1:$E$434</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TRM!$A$1:$E$529</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="29">
   <si>
     <t>Enero</t>
   </si>
@@ -136,8 +134,8 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -184,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +192,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +220,7 @@
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,12 +243,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Euro" xfId="2" xr:uid="{EFE7519C-60C8-434D-8E5A-F6E08AC6AB1A}"/>
@@ -580,19 +594,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10261DF-8D47-8E4F-98C8-A6B718030DDE}">
-  <dimension ref="A1:E434"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="A529" sqref="A529"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7973,13 +7987,1637 @@
         <v>36.477273684210502</v>
       </c>
     </row>
+    <row r="435" spans="1:5" s="3" customFormat="1">
+      <c r="A435" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E435" s="4">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" s="3" customFormat="1">
+      <c r="A436" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E436" s="4">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" s="3" customFormat="1">
+      <c r="A437" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D437" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E437" s="4">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" s="3" customFormat="1">
+      <c r="A438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E438" s="4">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" s="3" customFormat="1">
+      <c r="A439" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D439" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E439" s="4">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" s="3" customFormat="1">
+      <c r="A440" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E440" s="4">
+        <v>4022.7763157894701</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" s="3" customFormat="1">
+      <c r="A441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E441" s="4">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" s="3" customFormat="1">
+      <c r="A442" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D442" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E442" s="4">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" s="3" customFormat="1">
+      <c r="A443" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E443" s="4">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" s="3" customFormat="1">
+      <c r="A444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E444" s="4">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" s="3" customFormat="1">
+      <c r="A445" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E445" s="4">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" s="3" customFormat="1">
+      <c r="A446" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E446" s="4">
+        <v>4022.7763157894701</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" s="3" customFormat="1">
+      <c r="A447" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E447" s="4">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" s="3" customFormat="1">
+      <c r="A448" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E448" s="4">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" s="3" customFormat="1">
+      <c r="A449" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E449" s="4">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" s="3" customFormat="1">
+      <c r="A450" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E450" s="4">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" s="3" customFormat="1">
+      <c r="A451" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E451" s="4">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" s="3" customFormat="1">
+      <c r="A452" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E452" s="4">
+        <v>4022.7763157894701</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" s="3" customFormat="1">
+      <c r="A453" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E453" s="4">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" s="3" customFormat="1">
+      <c r="A454" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E454" s="4">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" s="3" customFormat="1">
+      <c r="A455" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E455" s="4">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" s="3" customFormat="1">
+      <c r="A456" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E456" s="4">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" s="3" customFormat="1">
+      <c r="A457" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E457" s="4">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" s="5" customFormat="1">
+      <c r="A458" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D458" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E458" s="6">
+        <v>4773.8373333333302</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" s="5" customFormat="1">
+      <c r="A459" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D459" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E459" s="6">
+        <v>4704.8739999999998</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" s="5" customFormat="1">
+      <c r="A460" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D460" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E460" s="6">
+        <v>4810.2708333333303</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" s="5" customFormat="1">
+      <c r="A461" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D461" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E461" s="6">
+        <v>4549.63055555556</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" s="5" customFormat="1">
+      <c r="A462" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D462" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E462" s="6">
+        <v>4565.93</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" s="5" customFormat="1">
+      <c r="A463" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D463" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E463" s="6">
+        <v>4298.5678260869599</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" s="5" customFormat="1">
+      <c r="A464" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E464" s="6">
+        <v>4124.1494444444397</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" s="5" customFormat="1">
+      <c r="A465" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E465" s="6">
+        <v>4022.7763157894701</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" s="5" customFormat="1">
+      <c r="A466" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D466" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E466" s="6">
+        <v>4025.85</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" s="5" customFormat="1">
+      <c r="A467" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D467" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E467" s="6">
+        <v>7.84871071428572</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" s="5" customFormat="1">
+      <c r="A468" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D468" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E468" s="6">
+        <v>7.8421289999999999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" s="5" customFormat="1">
+      <c r="A469" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D469" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E469" s="6">
+        <v>7.8089729166666704</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" s="5" customFormat="1">
+      <c r="A470" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D470" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E470" s="6">
+        <v>7.7987827777777801</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" s="5" customFormat="1">
+      <c r="A471" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D471" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E471" s="6">
+        <v>7.8037894736842102</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" s="5" customFormat="1">
+      <c r="A472" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D472" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E472" s="6">
+        <v>7.8311695454545402</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" s="5" customFormat="1">
+      <c r="A473" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E473" s="6">
+        <v>7.8439077777777797</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" s="5" customFormat="1">
+      <c r="A474" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D474" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E474" s="6">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" s="5" customFormat="1">
+      <c r="A475" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D475" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E475" s="6">
+        <v>585.27133333333302</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" s="5" customFormat="1">
+      <c r="A476" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D476" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E476" s="6">
+        <v>570.59950000000003</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" s="5" customFormat="1">
+      <c r="A477" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D477" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E477" s="6">
+        <v>555.63125000000002</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" s="5" customFormat="1">
+      <c r="A478" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D478" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E478" s="6">
+        <v>542.39388888888902</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" s="5" customFormat="1">
+      <c r="A479" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D479" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E479" s="6">
+        <v>543.45789473684204</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" s="5" customFormat="1">
+      <c r="A480" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D480" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E480" s="6">
+        <v>545.71739130434798</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" s="5" customFormat="1">
+      <c r="A481" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E481" s="6">
+        <v>548.48500000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" s="5" customFormat="1">
+      <c r="A482" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D482" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E482" s="6">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" s="5" customFormat="1">
+      <c r="A483" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D483" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E483" s="6">
+        <v>24.715807142857098</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" s="5" customFormat="1">
+      <c r="A484" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D484" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E484" s="6">
+        <v>24.681325000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" s="5" customFormat="1">
+      <c r="A485" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D485" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E485" s="6">
+        <v>24.693929166666699</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" s="5" customFormat="1">
+      <c r="A486" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D486" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E486" s="6">
+        <v>24.696400000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" s="5" customFormat="1">
+      <c r="A487" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D487" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E487" s="6">
+        <v>24.678457894736798</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" s="5" customFormat="1">
+      <c r="A488" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D488" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E488" s="6">
+        <v>24.7065045454545</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" s="5" customFormat="1">
+      <c r="A489" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E489" s="6">
+        <v>24.716750000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" s="5" customFormat="1">
+      <c r="A490" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D490" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E490" s="6">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" s="5" customFormat="1">
+      <c r="A491" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D491" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E491" s="6">
+        <v>56.303559999999997</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" s="5" customFormat="1">
+      <c r="A492" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D492" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E492" s="6">
+        <v>56.176310000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" s="5" customFormat="1">
+      <c r="A493" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D493" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E493" s="6">
+        <v>54.992120833333303</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" s="5" customFormat="1">
+      <c r="A494" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D494" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E494" s="6">
+        <v>54.604333333333301</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" s="5" customFormat="1">
+      <c r="A495" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D495" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E495" s="6">
+        <v>54.3597526315789</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" s="5" customFormat="1">
+      <c r="A496" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D496" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E496" s="6">
+        <v>54.586634782608698</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" s="5" customFormat="1">
+      <c r="A497" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E497" s="6">
+        <v>55.524666666666697</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" s="5" customFormat="1">
+      <c r="A498" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D498" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E498" s="6">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" s="5" customFormat="1">
+      <c r="A499" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D499" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E499" s="6">
+        <v>36.253278571428602</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" s="5" customFormat="1">
+      <c r="A500" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D500" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E500" s="6">
+        <v>36.295295000000003</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" s="5" customFormat="1">
+      <c r="A501" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D501" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E501" s="6">
+        <v>36.327495833333302</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" s="5" customFormat="1">
+      <c r="A502" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D502" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E502" s="6">
+        <v>36.3594222222222</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" s="5" customFormat="1">
+      <c r="A503" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D503" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E503" s="6">
+        <v>36.387257894736798</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" s="5" customFormat="1">
+      <c r="A504" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D504" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E504" s="6">
+        <v>36.418177272727299</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" s="5" customFormat="1">
+      <c r="A505" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E505" s="6">
+        <v>36.449183333333302</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" s="5" customFormat="1">
+      <c r="A506" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D506" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E506" s="6">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" s="5" customFormat="1">
+      <c r="A507" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D507" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E507" s="6">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" s="5" customFormat="1">
+      <c r="A508" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D508" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E508" s="6">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" s="5" customFormat="1">
+      <c r="A509" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D509" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E509" s="6">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" s="5" customFormat="1">
+      <c r="A510" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D510" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E510" s="6">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" s="5" customFormat="1">
+      <c r="A511" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D511" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E511" s="6">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" s="5" customFormat="1">
+      <c r="A512" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D512" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E512" s="6">
+        <v>4022.7763157894701</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" s="5" customFormat="1">
+      <c r="A513" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D513" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E513" s="6">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" s="5" customFormat="1">
+      <c r="A514" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D514" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E514" s="6">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" s="5" customFormat="1">
+      <c r="A515" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D515" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E515" s="6">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" s="5" customFormat="1">
+      <c r="A516" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D516" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E516" s="6">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" s="5" customFormat="1">
+      <c r="A517" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D517" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E517" s="6">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" s="5" customFormat="1">
+      <c r="A518" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D518" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E518" s="6">
+        <v>4022.7763157894701</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" s="5" customFormat="1">
+      <c r="A519" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D519" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E519" s="6">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" s="5" customFormat="1">
+      <c r="A520" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D520" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E520" s="6">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" s="5" customFormat="1">
+      <c r="A521" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D521" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E521" s="6">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" s="5" customFormat="1">
+      <c r="A522" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D522" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E522" s="6">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" s="5" customFormat="1">
+      <c r="A523" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D523" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E523" s="6">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" s="5" customFormat="1">
+      <c r="A524" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D524" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E524" s="6">
+        <v>4022.7763157894701</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" s="5" customFormat="1">
+      <c r="A525" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D525" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E525" s="6">
+        <v>7.8589373684210502</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" s="5" customFormat="1">
+      <c r="A526" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D526" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E526" s="6">
+        <v>543.32684210526304</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" s="5" customFormat="1">
+      <c r="A527" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D527" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E527" s="6">
+        <v>24.705457894736799</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" s="5" customFormat="1">
+      <c r="A528" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D528" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E528" s="6">
+        <v>56.2677210526316</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" s="5" customFormat="1">
+      <c r="A529" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D529" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E529" s="6">
+        <v>36.477273684210502</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E434" xr:uid="{D10261DF-8D47-8E4F-98C8-A6B718030DDE}"/>
+  <autoFilter ref="A1:E529" xr:uid="{D10261DF-8D47-8E4F-98C8-A6B718030DDE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D3DAF9237617E745B0E1EC269F41FDE1" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f534e24fc3c9e6c8cee7cf239573a9e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9b7bad64-0260-464c-b79f-bba155c34d15" xmlns:ns4="0b5462f8-bd60-4e55-89b6-4960cc694dfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ef50fe909d60efb3d5da8c98bee792e" ns3:_="" ns4:_="">
     <xsd:import namespace="9b7bad64-0260-464c-b79f-bba155c34d15"/>
@@ -8180,15 +9818,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8198,6 +9827,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C075E609-7771-46DA-9A42-E6F0AA389270}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62486BD-5FA8-460F-A26E-AFBC711C976C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8212,14 +9849,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C075E609-7771-46DA-9A42-E6F0AA389270}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
